--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1033050.66870878</v>
+        <v>1028894.178223725</v>
       </c>
     </row>
     <row r="7">
@@ -1378,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>174.827543053035</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1387,7 +1387,7 @@
         <v>395.4476524459058</v>
       </c>
       <c r="H11" t="n">
-        <v>266.4097384417204</v>
+        <v>193.1522613235761</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U11" t="n">
         <v>256.4751836067882</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>153.5081079429559</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1548,7 +1548,7 @@
         <v>130.781282966242</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>142.5131431297577</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.7097330287659</v>
       </c>
       <c r="U13" t="n">
         <v>275.6012973062951</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>4.794311509711838</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>191.2678885490706</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1618,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>261.0720382056442</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>54.32132285834413</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>108.3216055088472</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1785,7 +1785,7 @@
         <v>130.781282966242</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T16" t="n">
-        <v>239.7097330287659</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6012973062951</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>416.8167680530177</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>167.1388225190355</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>37.45777169608526</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>198.2177497694923</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6012973062951</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>191.2678885490706</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>287.4917744447437</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>122.7272296112195</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T22" t="n">
         <v>239.7097330287659</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>223.1519236013836</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>191.2678885490706</v>
       </c>
       <c r="C23" t="n">
-        <v>259.5198576908186</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.69418351668035</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>148.4084492725243</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>9.009773960670705</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>229.9620720657514</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2563,7 +2563,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>27.97165802448128</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>129.3441111423343</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2724,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4480002385883</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>420.095236964249</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -2803,13 +2803,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.69418351668035</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>184.1823525554947</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>104.9684549541265</v>
       </c>
       <c r="F31" t="n">
-        <v>155.1540699793233</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.7097330287659</v>
@@ -3037,16 +3037,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>38.69418351668035</v>
       </c>
       <c r="T32" t="n">
-        <v>14.80775327570293</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>202.0156648722096</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3189,16 +3189,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>151.0501808830693</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4480002385883</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T34" t="n">
         <v>239.7097330287659</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>292.8510220419157</v>
+        <v>404.0811752865996</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>395.4476524459058</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>38.69418351668035</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>61.07243267748366</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>122.7272296112195</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3514,10 +3514,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>389.9901077602711</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V38" t="n">
-        <v>249.4654584063278</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>122.7272296112197</v>
       </c>
       <c r="T40" t="n">
-        <v>129.5150914985812</v>
+        <v>239.7097330287659</v>
       </c>
       <c r="U40" t="n">
         <v>275.6012973062951</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.0156648722103</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>192.8200690638966</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.69418351668034</v>
+        <v>38.69418351668035</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>61.07243267748366</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>239.7097330287659</v>
       </c>
       <c r="U43" t="n">
-        <v>234.109314047023</v>
+        <v>275.6012973062951</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.4476524459058</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>38.69418351668035</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4042,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>242.2228975230896</v>
       </c>
       <c r="Y44" t="n">
-        <v>95.97019703495897</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.066849283703</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I46" t="n">
-        <v>61.65479693373584</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>134.4532889402273</v>
       </c>
       <c r="X46" t="n">
-        <v>24.1114970452504</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1757.630283097002</v>
+        <v>1507.039353631164</v>
       </c>
       <c r="C11" t="n">
-        <v>1757.630283097002</v>
+        <v>1507.039353631164</v>
       </c>
       <c r="D11" t="n">
-        <v>1321.720498271446</v>
+        <v>1071.129568805608</v>
       </c>
       <c r="E11" t="n">
-        <v>1145.127020440098</v>
+        <v>1071.129568805608</v>
       </c>
       <c r="F11" t="n">
-        <v>717.2595908493054</v>
+        <v>643.2621392148162</v>
       </c>
       <c r="G11" t="n">
-        <v>317.8175176716227</v>
+        <v>243.8200660371335</v>
       </c>
       <c r="H11" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I11" t="n">
-        <v>122.2071970529796</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J11" t="n">
         <v>284.896478104198</v>
       </c>
       <c r="K11" t="n">
-        <v>528.7255375544864</v>
+        <v>528.7255375544869</v>
       </c>
       <c r="L11" t="n">
-        <v>831.2170466428696</v>
+        <v>831.2170466428701</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.797134377708</v>
+        <v>1167.797134377709</v>
       </c>
       <c r="N11" t="n">
         <v>1509.823439815745</v>
@@ -5068,25 +5068,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S11" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T11" t="n">
-        <v>2435.83858854475</v>
+        <v>2185.247659078912</v>
       </c>
       <c r="U11" t="n">
-        <v>2176.772746517691</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="V11" t="n">
-        <v>2176.772746517691</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="W11" t="n">
-        <v>2176.772746517691</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="X11" t="n">
-        <v>1757.630283097002</v>
+        <v>1507.039353631164</v>
       </c>
       <c r="Y11" t="n">
-        <v>1757.630283097002</v>
+        <v>1507.039353631164</v>
       </c>
     </row>
     <row r="12">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1030.437829075619</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="C13" t="n">
-        <v>857.8761175588435</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="D13" t="n">
-        <v>691.9981247603662</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="E13" t="n">
-        <v>522.2401210111034</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="F13" t="n">
-        <v>345.5330669728596</v>
+        <v>407.8106396331989</v>
       </c>
       <c r="G13" t="n">
-        <v>180.819077797402</v>
+        <v>243.0966504577413</v>
       </c>
       <c r="H13" t="n">
-        <v>48.71677177089499</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I13" t="n">
         <v>48.71677177089499</v>
@@ -5208,10 +5208,10 @@
         <v>698.5740419034894</v>
       </c>
       <c r="M13" t="n">
-        <v>833.3559596361839</v>
+        <v>1292.839826817097</v>
       </c>
       <c r="N13" t="n">
-        <v>1185.276419525378</v>
+        <v>1424.416931798507</v>
       </c>
       <c r="O13" t="n">
         <v>1726.478421573054</v>
@@ -5229,22 +5229,22 @@
         <v>2291.885918716712</v>
       </c>
       <c r="T13" t="n">
-        <v>2291.885918716712</v>
+        <v>2049.754875253312</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.500769922474</v>
+        <v>1771.369726459075</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.545261792905</v>
+        <v>1484.414218329505</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.518857379196</v>
+        <v>1212.387813915797</v>
       </c>
       <c r="X13" t="n">
-        <v>1449.676118480498</v>
+        <v>966.9960592492091</v>
       </c>
       <c r="Y13" t="n">
-        <v>1222.256447794606</v>
+        <v>739.5763885633173</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1182.110430938806</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C14" t="n">
-        <v>1182.110430938806</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D14" t="n">
-        <v>746.2006461132505</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E14" t="n">
-        <v>312.4259012715457</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F14" t="n">
         <v>48.71677177089499</v>
@@ -5275,16 +5275,16 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I14" t="n">
-        <v>122.2071970529799</v>
+        <v>122.2071970529798</v>
       </c>
       <c r="J14" t="n">
         <v>284.8964781041983</v>
       </c>
       <c r="K14" t="n">
-        <v>528.7255375544868</v>
+        <v>528.7255375544869</v>
       </c>
       <c r="L14" t="n">
-        <v>831.2170466428698</v>
+        <v>831.2170466428701</v>
       </c>
       <c r="M14" t="n">
         <v>1167.797134377709</v>
@@ -5305,25 +5305,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S14" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T14" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="U14" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="V14" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="W14" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="X14" t="n">
-        <v>2016.69612512406</v>
+        <v>1977.611091268828</v>
       </c>
       <c r="Y14" t="n">
-        <v>1608.410001423714</v>
+        <v>1977.611091268828</v>
       </c>
     </row>
     <row r="15">
@@ -5360,10 +5360,10 @@
         <v>180.9245892111574</v>
       </c>
       <c r="K15" t="n">
-        <v>346.5363484128906</v>
+        <v>293.3357920169556</v>
       </c>
       <c r="L15" t="n">
-        <v>569.2217964201103</v>
+        <v>516.0212400241751</v>
       </c>
       <c r="M15" t="n">
         <v>775.8846544545776</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>970.0955884666055</v>
+        <v>926.8374089374805</v>
       </c>
       <c r="C16" t="n">
-        <v>797.5338769498304</v>
+        <v>754.2756974207055</v>
       </c>
       <c r="D16" t="n">
-        <v>631.6558841513531</v>
+        <v>754.2756974207055</v>
       </c>
       <c r="E16" t="n">
-        <v>522.2401210111034</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="F16" t="n">
-        <v>345.5330669728596</v>
+        <v>407.8106396331989</v>
       </c>
       <c r="G16" t="n">
-        <v>180.819077797402</v>
+        <v>243.0966504577413</v>
       </c>
       <c r="H16" t="n">
-        <v>48.71677177089499</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I16" t="n">
         <v>48.71677177089499</v>
@@ -5439,16 +5439,16 @@
         <v>196.086283195932</v>
       </c>
       <c r="K16" t="n">
-        <v>570.7410962095564</v>
+        <v>372.8745693493795</v>
       </c>
       <c r="L16" t="n">
-        <v>1116.78392367145</v>
+        <v>918.9173968112735</v>
       </c>
       <c r="M16" t="n">
-        <v>1251.565841404145</v>
+        <v>1053.699314543968</v>
       </c>
       <c r="N16" t="n">
-        <v>1383.142946385555</v>
+        <v>1185.276419525378</v>
       </c>
       <c r="O16" t="n">
         <v>1726.478421573054</v>
@@ -5463,25 +5463,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S16" t="n">
-        <v>2435.83858854475</v>
+        <v>2291.885918716712</v>
       </c>
       <c r="T16" t="n">
-        <v>2193.70754508135</v>
+        <v>2291.885918716712</v>
       </c>
       <c r="U16" t="n">
-        <v>2193.70754508135</v>
+        <v>2013.500769922474</v>
       </c>
       <c r="V16" t="n">
-        <v>1906.75203695178</v>
+        <v>1726.545261792905</v>
       </c>
       <c r="W16" t="n">
-        <v>1634.725632538072</v>
+        <v>1454.518857379196</v>
       </c>
       <c r="X16" t="n">
-        <v>1389.333877871484</v>
+        <v>1209.127102712609</v>
       </c>
       <c r="Y16" t="n">
-        <v>1161.914207185593</v>
+        <v>981.707432026717</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2435.83858854475</v>
+        <v>1091.596122866598</v>
       </c>
       <c r="C17" t="n">
-        <v>2014.811550107358</v>
+        <v>653.4536500500217</v>
       </c>
       <c r="D17" t="n">
-        <v>1578.901765281802</v>
+        <v>217.5438652244662</v>
       </c>
       <c r="E17" t="n">
-        <v>1145.127020440098</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="F17" t="n">
-        <v>717.2595908493054</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G17" t="n">
-        <v>317.8175176716227</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H17" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I17" t="n">
-        <v>122.2071970529796</v>
+        <v>122.2071970529789</v>
       </c>
       <c r="J17" t="n">
-        <v>284.896478104198</v>
+        <v>284.8964781041973</v>
       </c>
       <c r="K17" t="n">
-        <v>528.7255375544867</v>
+        <v>528.725537554486</v>
       </c>
       <c r="L17" t="n">
-        <v>831.2170466428698</v>
+        <v>831.2170466428691</v>
       </c>
       <c r="M17" t="n">
         <v>1167.797134377708</v>
       </c>
       <c r="N17" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O17" t="n">
-        <v>1832.789181316721</v>
+        <v>1832.78918131672</v>
       </c>
       <c r="P17" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q17" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R17" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S17" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T17" t="n">
-        <v>2435.83858854475</v>
+        <v>2185.247659078912</v>
       </c>
       <c r="U17" t="n">
-        <v>2435.83858854475</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="V17" t="n">
-        <v>2435.83858854475</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="W17" t="n">
-        <v>2435.83858854475</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="X17" t="n">
-        <v>2435.83858854475</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="Y17" t="n">
-        <v>2435.83858854475</v>
+        <v>1517.895693351506</v>
       </c>
     </row>
     <row r="18">
@@ -5585,19 +5585,19 @@
         <v>164.684848684769</v>
       </c>
       <c r="G18" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H18" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I18" t="n">
-        <v>48.71677177089499</v>
+        <v>84.02796795020362</v>
       </c>
       <c r="J18" t="n">
-        <v>127.7240328152223</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K18" t="n">
-        <v>293.3357920169556</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L18" t="n">
         <v>516.0212400241751</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1068.273962101967</v>
+        <v>733.6215338736539</v>
       </c>
       <c r="C19" t="n">
-        <v>895.7122505851922</v>
+        <v>561.0598223568788</v>
       </c>
       <c r="D19" t="n">
-        <v>729.8342577867149</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E19" t="n">
-        <v>560.0762540374521</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F19" t="n">
-        <v>383.3691999992084</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G19" t="n">
-        <v>218.6552108237508</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H19" t="n">
-        <v>86.55290479724374</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I19" t="n">
         <v>48.71677177089499</v>
@@ -5682,43 +5682,43 @@
         <v>1116.78392367145</v>
       </c>
       <c r="M19" t="n">
-        <v>1473.368563769749</v>
+        <v>1251.565841404145</v>
       </c>
       <c r="N19" t="n">
-        <v>1604.945668751159</v>
+        <v>1383.142946385555</v>
       </c>
       <c r="O19" t="n">
-        <v>1726.478421573054</v>
+        <v>1894.671196437386</v>
       </c>
       <c r="P19" t="n">
-        <v>2177.977581014356</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q19" t="n">
         <v>2418.169210152066</v>
       </c>
       <c r="R19" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S19" t="n">
-        <v>2291.885918716712</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="T19" t="n">
-        <v>2291.885918716712</v>
+        <v>2235.618639282636</v>
       </c>
       <c r="U19" t="n">
-        <v>2291.885918716712</v>
+        <v>1957.233490488398</v>
       </c>
       <c r="V19" t="n">
-        <v>2004.930410587142</v>
+        <v>1670.277982358829</v>
       </c>
       <c r="W19" t="n">
-        <v>1732.904006173434</v>
+        <v>1398.25157794512</v>
       </c>
       <c r="X19" t="n">
-        <v>1487.512251506846</v>
+        <v>1152.859823278533</v>
       </c>
       <c r="Y19" t="n">
-        <v>1260.092580820954</v>
+        <v>925.440152592641</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>777.254976349839</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C20" t="n">
-        <v>339.1125035332623</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D20" t="n">
-        <v>48.71677177089499</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E20" t="n">
-        <v>48.71677177089499</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F20" t="n">
         <v>48.71677177089499</v>
@@ -5749,16 +5749,16 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I20" t="n">
-        <v>122.2071970529796</v>
+        <v>122.2071970529798</v>
       </c>
       <c r="J20" t="n">
-        <v>284.896478104198</v>
+        <v>284.8964781041983</v>
       </c>
       <c r="K20" t="n">
-        <v>528.7255375544866</v>
+        <v>528.7255375544869</v>
       </c>
       <c r="L20" t="n">
-        <v>831.2170466428698</v>
+        <v>831.2170466428701</v>
       </c>
       <c r="M20" t="n">
         <v>1167.797134377709</v>
@@ -5779,25 +5779,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S20" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T20" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="U20" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="V20" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="W20" t="n">
-        <v>2030.983133955783</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="X20" t="n">
-        <v>1611.840670535094</v>
+        <v>1977.611091268828</v>
       </c>
       <c r="Y20" t="n">
-        <v>1203.554546834747</v>
+        <v>1977.611091268828</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>84.02796795020362</v>
       </c>
       <c r="J21" t="n">
-        <v>127.7240328152225</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K21" t="n">
-        <v>293.3357920169558</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L21" t="n">
-        <v>516.0212400241753</v>
+        <v>569.2217964201103</v>
       </c>
       <c r="M21" t="n">
-        <v>775.8846544545777</v>
+        <v>829.0852108505127</v>
       </c>
       <c r="N21" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O21" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P21" t="n">
-        <v>1482.486430331076</v>
+        <v>1535.686986727012</v>
       </c>
       <c r="Q21" t="n">
-        <v>1613.403252446057</v>
+        <v>1666.603808841992</v>
       </c>
       <c r="R21" t="n">
         <v>1677.080359849152</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>691.710439672368</v>
+        <v>567.7435410751766</v>
       </c>
       <c r="C22" t="n">
-        <v>519.1487281555929</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="D22" t="n">
         <v>395.1818295584015</v>
@@ -5916,13 +5916,13 @@
         <v>570.7410962095564</v>
       </c>
       <c r="L22" t="n">
-        <v>698.5740419034894</v>
+        <v>1116.78392367145</v>
       </c>
       <c r="M22" t="n">
-        <v>833.3559596361839</v>
+        <v>1251.565841404145</v>
       </c>
       <c r="N22" t="n">
-        <v>1185.276419525378</v>
+        <v>1383.142946385555</v>
       </c>
       <c r="O22" t="n">
         <v>1726.478421573054</v>
@@ -5937,25 +5937,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S22" t="n">
-        <v>2435.83858854475</v>
+        <v>2291.885918716712</v>
       </c>
       <c r="T22" t="n">
-        <v>2193.70754508135</v>
+        <v>2049.754875253312</v>
       </c>
       <c r="U22" t="n">
-        <v>1915.322396287112</v>
+        <v>1771.369726459075</v>
       </c>
       <c r="V22" t="n">
-        <v>1628.366888157543</v>
+        <v>1484.414218329505</v>
       </c>
       <c r="W22" t="n">
-        <v>1356.340483743835</v>
+        <v>1212.387813915797</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.948729077247</v>
+        <v>986.9818304800556</v>
       </c>
       <c r="Y22" t="n">
-        <v>883.5290583913552</v>
+        <v>759.5621597941638</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1608.410001423714</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C23" t="n">
         <v>1346.268731028948</v>
@@ -5986,55 +5986,55 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I23" t="n">
-        <v>122.2071970529796</v>
+        <v>122.2071970529791</v>
       </c>
       <c r="J23" t="n">
-        <v>284.8964781041983</v>
+        <v>284.8964781041976</v>
       </c>
       <c r="K23" t="n">
-        <v>528.7255375544869</v>
+        <v>528.7255375544862</v>
       </c>
       <c r="L23" t="n">
-        <v>831.2170466428701</v>
+        <v>831.2170466428694</v>
       </c>
       <c r="M23" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N23" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O23" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P23" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q23" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R23" t="n">
         <v>2435.83858854475</v>
       </c>
       <c r="S23" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T23" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="U23" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="V23" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="W23" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="X23" t="n">
-        <v>2016.69612512406</v>
+        <v>1977.611091268828</v>
       </c>
       <c r="Y23" t="n">
-        <v>1608.410001423714</v>
+        <v>1977.611091268828</v>
       </c>
     </row>
     <row r="24">
@@ -6086,10 +6086,10 @@
         <v>1339.842546057618</v>
       </c>
       <c r="P24" t="n">
-        <v>1535.686986727012</v>
+        <v>1482.486430331076</v>
       </c>
       <c r="Q24" t="n">
-        <v>1666.603808841993</v>
+        <v>1613.403252446057</v>
       </c>
       <c r="R24" t="n">
         <v>1677.080359849152</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>928.0014125605003</v>
+        <v>733.6215338736539</v>
       </c>
       <c r="C25" t="n">
-        <v>755.4397010437252</v>
+        <v>561.0598223568788</v>
       </c>
       <c r="D25" t="n">
-        <v>589.5617082452479</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E25" t="n">
-        <v>419.8037044959851</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F25" t="n">
-        <v>243.0966504577413</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G25" t="n">
-        <v>243.0966504577413</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H25" t="n">
-        <v>110.9943444312342</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I25" t="n">
         <v>48.71677177089499</v>
@@ -6189,10 +6189,10 @@
         <v>1356.340483743835</v>
       </c>
       <c r="X25" t="n">
-        <v>1347.239701965379</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y25" t="n">
-        <v>1119.820031279487</v>
+        <v>883.5290583913552</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1784.411203845524</v>
+        <v>1350.636459003819</v>
       </c>
       <c r="C26" t="n">
-        <v>1346.268731028948</v>
+        <v>912.4939861872427</v>
       </c>
       <c r="D26" t="n">
-        <v>910.3589462033921</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="E26" t="n">
         <v>476.5842013616872</v>
@@ -6223,7 +6223,7 @@
         <v>48.716771770895</v>
       </c>
       <c r="I26" t="n">
-        <v>122.2071970529792</v>
+        <v>122.2071970529796</v>
       </c>
       <c r="J26" t="n">
         <v>284.896478104198</v>
@@ -6253,25 +6253,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S26" t="n">
-        <v>2435.83858854475</v>
+        <v>2407.584388520022</v>
       </c>
       <c r="T26" t="n">
-        <v>2435.83858854475</v>
+        <v>2196.078492909417</v>
       </c>
       <c r="U26" t="n">
-        <v>2435.83858854475</v>
+        <v>2196.078492909417</v>
       </c>
       <c r="V26" t="n">
-        <v>2435.83858854475</v>
+        <v>2196.078492909417</v>
       </c>
       <c r="W26" t="n">
-        <v>2435.83858854475</v>
+        <v>2196.078492909417</v>
       </c>
       <c r="X26" t="n">
-        <v>2016.696125124061</v>
+        <v>1776.936029488727</v>
       </c>
       <c r="Y26" t="n">
-        <v>2016.696125124061</v>
+        <v>1776.936029488727</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>48.716771770895</v>
       </c>
       <c r="I27" t="n">
-        <v>48.716771770895</v>
+        <v>84.02796795020363</v>
       </c>
       <c r="J27" t="n">
-        <v>145.6133930318488</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K27" t="n">
-        <v>293.3357920169553</v>
+        <v>346.5363484128907</v>
       </c>
       <c r="L27" t="n">
-        <v>516.0212400241749</v>
+        <v>569.2217964201103</v>
       </c>
       <c r="M27" t="n">
-        <v>775.8846544545773</v>
+        <v>829.0852108505127</v>
       </c>
       <c r="N27" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O27" t="n">
         <v>1286.641989661683</v>
@@ -6363,13 +6363,13 @@
         <v>691.710439672368</v>
       </c>
       <c r="C28" t="n">
-        <v>519.1487281555929</v>
+        <v>561.0598223568788</v>
       </c>
       <c r="D28" t="n">
-        <v>353.2707353571157</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E28" t="n">
-        <v>183.5127316078529</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F28" t="n">
         <v>48.716771770895</v>
@@ -6387,22 +6387,22 @@
         <v>196.086283195932</v>
       </c>
       <c r="K28" t="n">
-        <v>295.9826416384209</v>
+        <v>570.7410962095564</v>
       </c>
       <c r="L28" t="n">
-        <v>532.8743953073899</v>
+        <v>1116.78392367145</v>
       </c>
       <c r="M28" t="n">
-        <v>1127.140180220998</v>
+        <v>1251.565841404145</v>
       </c>
       <c r="N28" t="n">
-        <v>1700.976088360052</v>
+        <v>1383.142946385555</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.178090407728</v>
+        <v>1726.478421573055</v>
       </c>
       <c r="P28" t="n">
-        <v>2346.170355878688</v>
+        <v>2177.977581014357</v>
       </c>
       <c r="Q28" t="n">
         <v>2418.169210152067</v>
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1611.840670535094</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C29" t="n">
-        <v>1187.502047338883</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D29" t="n">
-        <v>751.5922625133275</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E29" t="n">
-        <v>317.8175176716226</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F29" t="n">
-        <v>317.8175176716226</v>
+        <v>48.716771770895</v>
       </c>
       <c r="G29" t="n">
-        <v>317.8175176716226</v>
+        <v>48.716771770895</v>
       </c>
       <c r="H29" t="n">
         <v>48.716771770895</v>
       </c>
       <c r="I29" t="n">
-        <v>122.2071970529793</v>
+        <v>122.2071970529795</v>
       </c>
       <c r="J29" t="n">
-        <v>284.8964781041978</v>
+        <v>284.8964781041981</v>
       </c>
       <c r="K29" t="n">
-        <v>528.7255375544864</v>
+        <v>528.7255375544868</v>
       </c>
       <c r="L29" t="n">
-        <v>831.2170466428696</v>
+        <v>831.2170466428699</v>
       </c>
       <c r="M29" t="n">
-        <v>1167.797134377708</v>
+        <v>1167.797134377709</v>
       </c>
       <c r="N29" t="n">
         <v>1509.823439815745</v>
@@ -6490,25 +6490,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S29" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T29" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="U29" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="V29" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="W29" t="n">
-        <v>2030.983133955783</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="X29" t="n">
-        <v>1611.840670535094</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="Y29" t="n">
-        <v>1611.840670535094</v>
+        <v>2210.710774330432</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>48.716771770895</v>
       </c>
       <c r="I30" t="n">
-        <v>84.02796795020365</v>
+        <v>84.02796795020363</v>
       </c>
       <c r="J30" t="n">
         <v>180.9245892111574</v>
       </c>
       <c r="K30" t="n">
-        <v>346.5363484128907</v>
+        <v>293.3357920169556</v>
       </c>
       <c r="L30" t="n">
-        <v>569.2217964201103</v>
+        <v>516.0212400241751</v>
       </c>
       <c r="M30" t="n">
-        <v>829.0852108505127</v>
+        <v>775.8846544545776</v>
       </c>
       <c r="N30" t="n">
-        <v>1095.826436613165</v>
+        <v>1042.62588021723</v>
       </c>
       <c r="O30" t="n">
-        <v>1339.842546057618</v>
+        <v>1286.641989661683</v>
       </c>
       <c r="P30" t="n">
-        <v>1535.686986727012</v>
+        <v>1482.486430331076</v>
       </c>
       <c r="Q30" t="n">
         <v>1613.403252446057</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>547.7577698443301</v>
+        <v>691.710439672368</v>
       </c>
       <c r="C31" t="n">
-        <v>375.1960583275551</v>
+        <v>691.710439672368</v>
       </c>
       <c r="D31" t="n">
-        <v>375.1960583275551</v>
+        <v>525.8324468738907</v>
       </c>
       <c r="E31" t="n">
-        <v>205.4380545782923</v>
+        <v>419.8037044959851</v>
       </c>
       <c r="F31" t="n">
-        <v>48.716771770895</v>
+        <v>243.0966504577413</v>
       </c>
       <c r="G31" t="n">
-        <v>48.716771770895</v>
+        <v>243.0966504577413</v>
       </c>
       <c r="H31" t="n">
-        <v>48.716771770895</v>
+        <v>110.9943444312343</v>
       </c>
       <c r="I31" t="n">
         <v>48.716771770895</v>
@@ -6630,10 +6630,10 @@
         <v>1116.78392367145</v>
       </c>
       <c r="M31" t="n">
-        <v>1473.36856376975</v>
+        <v>1251.565841404145</v>
       </c>
       <c r="N31" t="n">
-        <v>1604.94566875116</v>
+        <v>1383.142946385555</v>
       </c>
       <c r="O31" t="n">
         <v>1726.478421573055</v>
@@ -6648,25 +6648,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S31" t="n">
-        <v>2291.885918716712</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T31" t="n">
-        <v>2049.754875253312</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U31" t="n">
-        <v>1771.369726459075</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V31" t="n">
-        <v>1484.414218329505</v>
+        <v>1628.366888157543</v>
       </c>
       <c r="W31" t="n">
-        <v>1212.387813915797</v>
+        <v>1356.340483743835</v>
       </c>
       <c r="X31" t="n">
-        <v>966.9960592492091</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y31" t="n">
-        <v>739.5763885633173</v>
+        <v>883.5290583913552</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2019.17927808223</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C32" t="n">
-        <v>1581.036805265653</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D32" t="n">
-        <v>1145.127020440098</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E32" t="n">
-        <v>1145.127020440098</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F32" t="n">
-        <v>717.2595908493054</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G32" t="n">
-        <v>317.8175176716226</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H32" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I32" t="n">
-        <v>122.2071970529792</v>
+        <v>122.207197052979</v>
       </c>
       <c r="J32" t="n">
-        <v>284.8964781041977</v>
+        <v>284.8964781041976</v>
       </c>
       <c r="K32" t="n">
-        <v>528.7255375544864</v>
+        <v>528.7255375544862</v>
       </c>
       <c r="L32" t="n">
-        <v>831.2170466428696</v>
+        <v>831.2170466428694</v>
       </c>
       <c r="M32" t="n">
         <v>1167.797134377708</v>
@@ -6718,10 +6718,10 @@
         <v>1832.789181316721</v>
       </c>
       <c r="P32" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q32" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R32" t="n">
         <v>2435.83858854475</v>
@@ -6730,22 +6730,22 @@
         <v>2396.753554689517</v>
       </c>
       <c r="T32" t="n">
-        <v>2381.796228148403</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="U32" t="n">
-        <v>2381.796228148403</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="V32" t="n">
-        <v>2019.17927808223</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="W32" t="n">
-        <v>2019.17927808223</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="X32" t="n">
-        <v>2019.17927808223</v>
+        <v>2192.697327545871</v>
       </c>
       <c r="Y32" t="n">
-        <v>2019.17927808223</v>
+        <v>1784.411203845524</v>
       </c>
     </row>
     <row r="33">
@@ -6773,22 +6773,22 @@
         <v>80.34618184019172</v>
       </c>
       <c r="H33" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I33" t="n">
-        <v>48.716771770895</v>
+        <v>84.02796795020362</v>
       </c>
       <c r="J33" t="n">
-        <v>127.724032815222</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K33" t="n">
-        <v>293.3357920169553</v>
+        <v>293.3357920169556</v>
       </c>
       <c r="L33" t="n">
-        <v>516.0212400241749</v>
+        <v>516.0212400241751</v>
       </c>
       <c r="M33" t="n">
-        <v>775.8846544545773</v>
+        <v>775.8846544545776</v>
       </c>
       <c r="N33" t="n">
         <v>1042.62588021723</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>691.710439672368</v>
+        <v>547.7577698443301</v>
       </c>
       <c r="C34" t="n">
-        <v>519.1487281555929</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="D34" t="n">
-        <v>353.2707353571157</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E34" t="n">
-        <v>183.5127316078529</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F34" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G34" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H34" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I34" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="J34" t="n">
         <v>196.086283195932</v>
@@ -6864,46 +6864,46 @@
         <v>570.7410962095564</v>
       </c>
       <c r="L34" t="n">
-        <v>879.1027788561422</v>
+        <v>698.5740419034894</v>
       </c>
       <c r="M34" t="n">
-        <v>1473.36856376975</v>
+        <v>1031.109760612105</v>
       </c>
       <c r="N34" t="n">
-        <v>1604.94566875116</v>
+        <v>1604.945668751159</v>
       </c>
       <c r="O34" t="n">
-        <v>1726.478421573055</v>
+        <v>1726.478421573054</v>
       </c>
       <c r="P34" t="n">
-        <v>2177.977581014357</v>
+        <v>2177.977581014356</v>
       </c>
       <c r="Q34" t="n">
-        <v>2418.169210152067</v>
+        <v>2418.169210152066</v>
       </c>
       <c r="R34" t="n">
         <v>2435.83858854475</v>
       </c>
       <c r="S34" t="n">
-        <v>2435.83858854475</v>
+        <v>2291.885918716712</v>
       </c>
       <c r="T34" t="n">
-        <v>2193.70754508135</v>
+        <v>2049.754875253312</v>
       </c>
       <c r="U34" t="n">
-        <v>1915.322396287112</v>
+        <v>1771.369726459075</v>
       </c>
       <c r="V34" t="n">
-        <v>1628.366888157543</v>
+        <v>1484.414218329505</v>
       </c>
       <c r="W34" t="n">
-        <v>1356.340483743835</v>
+        <v>1212.387813915797</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.948729077247</v>
+        <v>966.9960592492091</v>
       </c>
       <c r="Y34" t="n">
-        <v>883.5290583913552</v>
+        <v>739.5763885633173</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1182.110430938807</v>
+        <v>1563.56486698568</v>
       </c>
       <c r="C35" t="n">
-        <v>743.9679581222299</v>
+        <v>1125.422394169103</v>
       </c>
       <c r="D35" t="n">
-        <v>448.1588449485777</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="E35" t="n">
-        <v>448.1588449485777</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="F35" t="n">
-        <v>448.1588449485777</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="G35" t="n">
-        <v>48.716771770895</v>
+        <v>317.8175176716226</v>
       </c>
       <c r="H35" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I35" t="n">
-        <v>122.2071970529793</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J35" t="n">
-        <v>284.8964781041978</v>
+        <v>284.8964781041976</v>
       </c>
       <c r="K35" t="n">
-        <v>528.7255375544864</v>
+        <v>528.725537554486</v>
       </c>
       <c r="L35" t="n">
-        <v>831.2170466428696</v>
+        <v>831.2170466428691</v>
       </c>
       <c r="M35" t="n">
         <v>1167.797134377708</v>
@@ -6955,34 +6955,34 @@
         <v>1832.789181316721</v>
       </c>
       <c r="P35" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q35" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R35" t="n">
         <v>2435.83858854475</v>
       </c>
       <c r="S35" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T35" t="n">
-        <v>2435.83858854475</v>
+        <v>2185.247659078912</v>
       </c>
       <c r="U35" t="n">
-        <v>2435.83858854475</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="V35" t="n">
-        <v>2435.83858854475</v>
+        <v>1563.56486698568</v>
       </c>
       <c r="W35" t="n">
-        <v>2435.83858854475</v>
+        <v>1563.56486698568</v>
       </c>
       <c r="X35" t="n">
-        <v>2016.696125124061</v>
+        <v>1563.56486698568</v>
       </c>
       <c r="Y35" t="n">
-        <v>1608.410001423714</v>
+        <v>1563.56486698568</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>80.34618184019172</v>
       </c>
       <c r="H36" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I36" t="n">
-        <v>84.02796795020365</v>
+        <v>84.02796795020362</v>
       </c>
       <c r="J36" t="n">
         <v>180.9245892111574</v>
@@ -7022,16 +7022,16 @@
         <v>346.5363484128907</v>
       </c>
       <c r="L36" t="n">
-        <v>516.0212400241749</v>
+        <v>569.2217964201103</v>
       </c>
       <c r="M36" t="n">
-        <v>775.8846544545773</v>
+        <v>829.0852108505127</v>
       </c>
       <c r="N36" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O36" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P36" t="n">
         <v>1482.486430331076</v>
@@ -7077,46 +7077,46 @@
         <v>519.1487281555929</v>
       </c>
       <c r="D37" t="n">
-        <v>519.1487281555929</v>
+        <v>457.4594022187408</v>
       </c>
       <c r="E37" t="n">
-        <v>349.3907244063302</v>
+        <v>287.701398469478</v>
       </c>
       <c r="F37" t="n">
-        <v>172.6836703680864</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="G37" t="n">
-        <v>48.716771770895</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="H37" t="n">
-        <v>48.716771770895</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I37" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="J37" t="n">
-        <v>196.086283195932</v>
+        <v>109.5065980312421</v>
       </c>
       <c r="K37" t="n">
-        <v>446.3154350264089</v>
+        <v>484.1614110448666</v>
       </c>
       <c r="L37" t="n">
-        <v>992.3582624883029</v>
+        <v>611.9943567387996</v>
       </c>
       <c r="M37" t="n">
-        <v>1127.140180220998</v>
+        <v>1206.260141652407</v>
       </c>
       <c r="N37" t="n">
-        <v>1700.976088360052</v>
+        <v>1773.138443615491</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.178090407728</v>
+        <v>1894.671196437387</v>
       </c>
       <c r="P37" t="n">
         <v>2346.170355878688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2418.169210152067</v>
+        <v>2418.169210152066</v>
       </c>
       <c r="R37" t="n">
         <v>2435.83858854475</v>
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2183.853277023207</v>
+        <v>1750.473176032784</v>
       </c>
       <c r="C38" t="n">
-        <v>1745.71080420663</v>
+        <v>1312.330703216207</v>
       </c>
       <c r="D38" t="n">
-        <v>1309.801019381075</v>
+        <v>876.4209183906514</v>
       </c>
       <c r="E38" t="n">
-        <v>876.02627453937</v>
+        <v>442.6461735489466</v>
       </c>
       <c r="F38" t="n">
-        <v>448.1588449485777</v>
+        <v>48.716771770895</v>
       </c>
       <c r="G38" t="n">
-        <v>48.71677177089501</v>
+        <v>48.716771770895</v>
       </c>
       <c r="H38" t="n">
-        <v>48.71677177089501</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I38" t="n">
-        <v>122.2071970529792</v>
+        <v>122.2071970529796</v>
       </c>
       <c r="J38" t="n">
-        <v>284.896478104198</v>
+        <v>284.8964781041981</v>
       </c>
       <c r="K38" t="n">
-        <v>528.7255375544867</v>
+        <v>528.7255375544868</v>
       </c>
       <c r="L38" t="n">
-        <v>831.2170466428701</v>
+        <v>831.2170466428699</v>
       </c>
       <c r="M38" t="n">
         <v>1167.797134377709</v>
@@ -7189,37 +7189,37 @@
         <v>1509.823439815745</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.789181316722</v>
+        <v>1832.789181316721</v>
       </c>
       <c r="P38" t="n">
         <v>2108.432969611295</v>
       </c>
       <c r="Q38" t="n">
-        <v>2315.429975153289</v>
+        <v>2315.429975153288</v>
       </c>
       <c r="R38" t="n">
-        <v>2435.838588544751</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S38" t="n">
-        <v>2435.838588544751</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T38" t="n">
-        <v>2435.838588544751</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="U38" t="n">
-        <v>2435.838588544751</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="V38" t="n">
-        <v>2183.853277023207</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="W38" t="n">
-        <v>2183.853277023207</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="X38" t="n">
-        <v>2183.853277023207</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="Y38" t="n">
-        <v>2183.853277023207</v>
+        <v>2176.772746517691</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>164.684848684769</v>
       </c>
       <c r="G39" t="n">
-        <v>80.34618184019173</v>
+        <v>80.34618184019172</v>
       </c>
       <c r="H39" t="n">
-        <v>48.71677177089501</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I39" t="n">
-        <v>48.71677177089501</v>
+        <v>84.02796795020363</v>
       </c>
       <c r="J39" t="n">
-        <v>127.7240328152219</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K39" t="n">
-        <v>293.3357920169552</v>
+        <v>346.5363484128907</v>
       </c>
       <c r="L39" t="n">
-        <v>516.0212400241749</v>
+        <v>569.2217964201103</v>
       </c>
       <c r="M39" t="n">
-        <v>775.8846544545773</v>
+        <v>829.0852108505127</v>
       </c>
       <c r="N39" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O39" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P39" t="n">
-        <v>1482.486430331076</v>
+        <v>1535.686986727012</v>
       </c>
       <c r="Q39" t="n">
-        <v>1613.403252446057</v>
+        <v>1666.603808841993</v>
       </c>
       <c r="R39" t="n">
         <v>1677.080359849152</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1030.437829075619</v>
+        <v>567.7435410751766</v>
       </c>
       <c r="C40" t="n">
-        <v>857.8761175588435</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="D40" t="n">
-        <v>691.9981247603662</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E40" t="n">
-        <v>522.2401210111034</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F40" t="n">
-        <v>345.5330669728596</v>
+        <v>48.716771770895</v>
       </c>
       <c r="G40" t="n">
-        <v>180.8190777974021</v>
+        <v>48.716771770895</v>
       </c>
       <c r="H40" t="n">
-        <v>48.71677177089501</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I40" t="n">
-        <v>48.71677177089501</v>
+        <v>48.716771770895</v>
       </c>
       <c r="J40" t="n">
-        <v>196.086283195932</v>
+        <v>109.5065980312421</v>
       </c>
       <c r="K40" t="n">
-        <v>570.7410962095564</v>
+        <v>484.1614110448666</v>
       </c>
       <c r="L40" t="n">
-        <v>1116.78392367145</v>
+        <v>611.9943567387996</v>
       </c>
       <c r="M40" t="n">
-        <v>1473.36856376975</v>
+        <v>746.776274471494</v>
       </c>
       <c r="N40" t="n">
-        <v>1604.94566875116</v>
+        <v>1185.276419525378</v>
       </c>
       <c r="O40" t="n">
         <v>1726.478421573055</v>
@@ -7356,28 +7356,28 @@
         <v>2418.169210152067</v>
       </c>
       <c r="R40" t="n">
-        <v>2435.838588544751</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S40" t="n">
-        <v>2435.838588544751</v>
+        <v>2311.871689947558</v>
       </c>
       <c r="T40" t="n">
-        <v>2305.015263798709</v>
+        <v>2069.740646484159</v>
       </c>
       <c r="U40" t="n">
-        <v>2026.630115004471</v>
+        <v>1791.355497689921</v>
       </c>
       <c r="V40" t="n">
-        <v>1739.674606874902</v>
+        <v>1504.399989560352</v>
       </c>
       <c r="W40" t="n">
-        <v>1467.648202461193</v>
+        <v>1232.373585146643</v>
       </c>
       <c r="X40" t="n">
-        <v>1222.256447794606</v>
+        <v>986.9818304800556</v>
       </c>
       <c r="Y40" t="n">
-        <v>1222.256447794606</v>
+        <v>759.5621597941638</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1784.411203845524</v>
+        <v>1551.311520783921</v>
       </c>
       <c r="C41" t="n">
-        <v>1346.268731028948</v>
+        <v>1113.169047967344</v>
       </c>
       <c r="D41" t="n">
-        <v>910.3589462033922</v>
+        <v>677.2592631417883</v>
       </c>
       <c r="E41" t="n">
-        <v>476.5842013616873</v>
+        <v>243.4845183000835</v>
       </c>
       <c r="F41" t="n">
-        <v>48.71677177089501</v>
+        <v>48.716771770895</v>
       </c>
       <c r="G41" t="n">
-        <v>48.71677177089501</v>
+        <v>48.716771770895</v>
       </c>
       <c r="H41" t="n">
-        <v>48.71677177089501</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I41" t="n">
-        <v>122.2071970529795</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J41" t="n">
         <v>284.896478104198</v>
@@ -7420,7 +7420,7 @@
         <v>831.2170466428698</v>
       </c>
       <c r="M41" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N41" t="n">
         <v>1509.823439815745</v>
@@ -7435,28 +7435,28 @@
         <v>2315.429975153288</v>
       </c>
       <c r="R41" t="n">
-        <v>2435.838588544751</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S41" t="n">
-        <v>2396.753554689518</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T41" t="n">
-        <v>2396.753554689518</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="U41" t="n">
-        <v>2396.753554689518</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="V41" t="n">
-        <v>2396.753554689518</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="W41" t="n">
-        <v>2396.753554689518</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="X41" t="n">
-        <v>2396.753554689518</v>
+        <v>1977.611091268828</v>
       </c>
       <c r="Y41" t="n">
-        <v>1988.467430989171</v>
+        <v>1977.611091268828</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>164.684848684769</v>
       </c>
       <c r="G42" t="n">
-        <v>80.34618184019173</v>
+        <v>80.34618184019172</v>
       </c>
       <c r="H42" t="n">
-        <v>48.71677177089501</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I42" t="n">
         <v>84.02796795020365</v>
       </c>
       <c r="J42" t="n">
-        <v>180.9245892111575</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K42" t="n">
-        <v>346.5363484128908</v>
+        <v>293.3357920169553</v>
       </c>
       <c r="L42" t="n">
-        <v>569.2217964201105</v>
+        <v>516.0212400241749</v>
       </c>
       <c r="M42" t="n">
-        <v>829.0852108505129</v>
+        <v>775.8846544545773</v>
       </c>
       <c r="N42" t="n">
-        <v>1095.826436613165</v>
+        <v>1042.62588021723</v>
       </c>
       <c r="O42" t="n">
-        <v>1339.842546057618</v>
+        <v>1286.641989661683</v>
       </c>
       <c r="P42" t="n">
-        <v>1535.686986727012</v>
+        <v>1482.486430331076</v>
       </c>
       <c r="Q42" t="n">
-        <v>1666.603808841993</v>
+        <v>1613.403252446057</v>
       </c>
       <c r="R42" t="n">
         <v>1677.080359849152</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.6215338736539</v>
+        <v>691.710439672368</v>
       </c>
       <c r="C43" t="n">
-        <v>561.0598223568788</v>
+        <v>519.1487281555929</v>
       </c>
       <c r="D43" t="n">
-        <v>395.1818295584015</v>
+        <v>457.4594022187408</v>
       </c>
       <c r="E43" t="n">
-        <v>225.4238258091388</v>
+        <v>287.701398469478</v>
       </c>
       <c r="F43" t="n">
-        <v>48.71677177089501</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="G43" t="n">
-        <v>48.71677177089501</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="H43" t="n">
-        <v>48.71677177089501</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I43" t="n">
-        <v>48.71677177089501</v>
+        <v>48.716771770895</v>
       </c>
       <c r="J43" t="n">
         <v>196.086283195932</v>
       </c>
       <c r="K43" t="n">
-        <v>406.5008170712779</v>
+        <v>570.7410962095564</v>
       </c>
       <c r="L43" t="n">
-        <v>952.5436445331719</v>
+        <v>1116.78392367145</v>
       </c>
       <c r="M43" t="n">
-        <v>1546.809429446779</v>
+        <v>1251.565841404145</v>
       </c>
       <c r="N43" t="n">
-        <v>2120.645337585834</v>
+        <v>1383.142946385555</v>
       </c>
       <c r="O43" t="n">
-        <v>2242.178090407729</v>
+        <v>1726.478421573055</v>
       </c>
       <c r="P43" t="n">
-        <v>2346.170355878689</v>
+        <v>2177.977581014357</v>
       </c>
       <c r="Q43" t="n">
         <v>2418.169210152067</v>
       </c>
       <c r="R43" t="n">
-        <v>2435.838588544751</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S43" t="n">
-        <v>2435.838588544751</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T43" t="n">
-        <v>2193.707545081351</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U43" t="n">
-        <v>1957.233490488398</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V43" t="n">
-        <v>1670.277982358829</v>
+        <v>1628.366888157543</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.25157794512</v>
+        <v>1356.340483743835</v>
       </c>
       <c r="X43" t="n">
-        <v>1152.859823278533</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y43" t="n">
-        <v>925.440152592641</v>
+        <v>883.5290583913552</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1145.127020440098</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="C44" t="n">
-        <v>1145.127020440098</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="D44" t="n">
-        <v>1145.127020440098</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="E44" t="n">
-        <v>1145.127020440098</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="F44" t="n">
         <v>717.2595908493054</v>
       </c>
       <c r="G44" t="n">
-        <v>317.8175176716227</v>
+        <v>317.8175176716226</v>
       </c>
       <c r="H44" t="n">
-        <v>48.71677177089501</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I44" t="n">
         <v>122.2071970529795</v>
@@ -7672,28 +7672,28 @@
         <v>2315.429975153288</v>
       </c>
       <c r="R44" t="n">
-        <v>2435.838588544751</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S44" t="n">
-        <v>2435.838588544751</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T44" t="n">
-        <v>2435.838588544751</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="U44" t="n">
-        <v>2435.838588544751</v>
+        <v>2137.687712662459</v>
       </c>
       <c r="V44" t="n">
-        <v>2073.221638478577</v>
+        <v>1775.070762596285</v>
       </c>
       <c r="W44" t="n">
-        <v>1668.36618388961</v>
+        <v>1370.215308007318</v>
       </c>
       <c r="X44" t="n">
-        <v>1668.36618388961</v>
+        <v>1125.545714549652</v>
       </c>
       <c r="Y44" t="n">
-        <v>1571.426590925005</v>
+        <v>717.2595908493054</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>164.684848684769</v>
       </c>
       <c r="G45" t="n">
-        <v>80.34618184019173</v>
+        <v>80.34618184019172</v>
       </c>
       <c r="H45" t="n">
-        <v>48.71677177089501</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I45" t="n">
         <v>84.02796795020365</v>
       </c>
       <c r="J45" t="n">
-        <v>127.7240328152219</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K45" t="n">
-        <v>293.3357920169552</v>
+        <v>346.5363484128907</v>
       </c>
       <c r="L45" t="n">
-        <v>516.0212400241749</v>
+        <v>569.2217964201103</v>
       </c>
       <c r="M45" t="n">
-        <v>775.8846544545773</v>
+        <v>829.0852108505127</v>
       </c>
       <c r="N45" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O45" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P45" t="n">
-        <v>1482.486430331076</v>
+        <v>1535.686986727012</v>
       </c>
       <c r="Q45" t="n">
-        <v>1613.403252446057</v>
+        <v>1666.603808841993</v>
       </c>
       <c r="R45" t="n">
         <v>1677.080359849152</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>960.6130957094508</v>
+        <v>683.972771288112</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0513841926758</v>
+        <v>511.4110597713369</v>
       </c>
       <c r="D46" t="n">
-        <v>622.1733913941985</v>
+        <v>345.5330669728596</v>
       </c>
       <c r="E46" t="n">
-        <v>452.4153876449357</v>
+        <v>345.5330669728596</v>
       </c>
       <c r="F46" t="n">
-        <v>275.7083336066918</v>
+        <v>345.5330669728596</v>
       </c>
       <c r="G46" t="n">
-        <v>110.9943444312343</v>
+        <v>180.8190777974021</v>
       </c>
       <c r="H46" t="n">
-        <v>110.9943444312343</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I46" t="n">
-        <v>48.71677177089501</v>
+        <v>48.716771770895</v>
       </c>
       <c r="J46" t="n">
         <v>196.086283195932</v>
       </c>
       <c r="K46" t="n">
-        <v>570.7410962095564</v>
+        <v>295.9826416384209</v>
       </c>
       <c r="L46" t="n">
-        <v>1116.78392367145</v>
+        <v>532.8743953073899</v>
       </c>
       <c r="M46" t="n">
-        <v>1251.565841404145</v>
+        <v>1127.140180220998</v>
       </c>
       <c r="N46" t="n">
-        <v>1383.142946385555</v>
+        <v>1700.976088360052</v>
       </c>
       <c r="O46" t="n">
-        <v>1726.478421573055</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P46" t="n">
-        <v>2177.977581014357</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q46" t="n">
         <v>2418.169210152067</v>
       </c>
       <c r="R46" t="n">
-        <v>2435.838588544751</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S46" t="n">
-        <v>2291.885918716713</v>
+        <v>2291.885918716712</v>
       </c>
       <c r="T46" t="n">
-        <v>2049.754875253313</v>
+        <v>2049.754875253312</v>
       </c>
       <c r="U46" t="n">
-        <v>1771.369726459076</v>
+        <v>1771.369726459075</v>
       </c>
       <c r="V46" t="n">
-        <v>1484.414218329506</v>
+        <v>1484.414218329505</v>
       </c>
       <c r="W46" t="n">
-        <v>1212.387813915798</v>
+        <v>1348.602815359578</v>
       </c>
       <c r="X46" t="n">
-        <v>1188.032766395343</v>
+        <v>1103.211060692991</v>
       </c>
       <c r="Y46" t="n">
-        <v>960.6130957094508</v>
+        <v>875.7913900070992</v>
       </c>
     </row>
   </sheetData>
@@ -8856,13 +8856,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>222.5690453613983</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>182.3522595481338</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9087,7 +9087,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>77.66861384945321</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>224.043153904651</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9330,19 +9330,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>224.0431539046508</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>393.9348456868045</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,16 +9564,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>222.5690453613983</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>224.043153904651</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -10035,25 +10035,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>110.160412095996</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>224.0431539046513</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10278,13 +10278,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>224.0431539046513</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10512,13 +10512,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>182.352259548134</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>199.7513141170919</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>151.8513064525131</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>439.698178769368</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>224.0431539046517</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>310.0232728004793</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11220,25 +11220,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>111.6345206392495</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>224.0431539046513</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>110.160412095996</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>224.0431539046517</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>254.6094543402527</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>73.25747711814429</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>36.39232458884132</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.7097330287659</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>238.1435256102098</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>230.7686862309881</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>162.5167170892402</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.4476524459058</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.3908366544989</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>135.5791096734531</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>59.73881820292289</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.7097330287659</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6012973062951</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>16.94428003539321</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>262.2981748742523</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -23800,7 +23800,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I19" t="n">
-        <v>24.19702523765059</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T19" t="n">
-        <v>239.7097330287659</v>
+        <v>41.49198325927358</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6012973062951</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>230.7686862309881</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>144.0589125325562</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.4476524459058</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.3908366544989</v>
@@ -24031,13 +24031,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>41.49198325927304</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>19.78591351853802</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>230.7686862309881</v>
       </c>
       <c r="C23" t="n">
-        <v>174.2411903975923</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.69418351668035</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.3908366544989</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>41.49198325927296</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>163.066849283703</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>233.9280631592509</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>192.0745027143073</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.69418351668035</v>
+        <v>10.72252549219908</v>
       </c>
       <c r="T26" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4751836067882</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>41.49198325927304</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>41.49198325927301</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.066849283703</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>13.66581112416196</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.4476524459058</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.69418351668035</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.3908366544989</v>
@@ -24742,10 +24742,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>230.7686862309877</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>63.09196875764358</v>
       </c>
       <c r="F31" t="n">
-        <v>19.785913518538</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.066849283703</v>
       </c>
       <c r="H31" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>194.5830833787959</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U32" t="n">
         <v>256.4751836067882</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>212.9353739142728</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>19.78591351853802</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>41.49198325927301</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.066849283703</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>138.6996649353842</v>
+        <v>27.4695116907003</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.69418351668035</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>103.1467801930089</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>40.33961967248351</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H37" t="n">
         <v>130.781282966242</v>
       </c>
       <c r="I37" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>33.59864753461324</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H38" t="n">
         <v>266.4097384417204</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.69418351668034</v>
+        <v>38.69418351668035</v>
       </c>
       <c r="T38" t="n">
         <v>209.3908366544989</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>109.5253221591839</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I40" t="n">
-        <v>61.65479693373584</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.5131431297577</v>
+        <v>19.785913518538</v>
       </c>
       <c r="T40" t="n">
-        <v>110.1946415301847</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.0209099078484</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>230.7686862309877</v>
       </c>
       <c r="G41" t="n">
         <v>395.4476524459058</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.1467801930089</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>130.781282966242</v>
       </c>
       <c r="I43" t="n">
-        <v>61.65479693373584</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>41.49198325927208</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25876,7 +25876,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>38.69418351668034</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.3908366544989</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>172.7281412633928</v>
       </c>
       <c r="Y44" t="n">
-        <v>308.2330654283841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>134.8528514293441</v>
       </c>
       <c r="X46" t="n">
-        <v>218.8263400746713</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>312234.0003041776</v>
+        <v>312234.0003041777</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>312234.0003041777</v>
+        <v>312234.0003041776</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>312234.0003041776</v>
+        <v>312234.0003041777</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>312234.0003041777</v>
+        <v>312234.0003041776</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>312234.0003041778</v>
+        <v>312234.0003041777</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>312234.0003041778</v>
+        <v>312234.0003041776</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>444876.9379563229</v>
       </c>
       <c r="C2" t="n">
-        <v>444876.937956323</v>
+        <v>444876.9379563229</v>
       </c>
       <c r="D2" t="n">
         <v>444876.9379563229</v>
@@ -26325,31 +26325,31 @@
         <v>274047.3784561929</v>
       </c>
       <c r="F2" t="n">
-        <v>274047.3784561929</v>
+        <v>274047.378456193</v>
       </c>
       <c r="G2" t="n">
-        <v>274047.3784561929</v>
+        <v>274047.3784561928</v>
       </c>
       <c r="H2" t="n">
         <v>274047.3784561929</v>
       </c>
       <c r="I2" t="n">
-        <v>274047.3784561928</v>
+        <v>274047.3784561929</v>
       </c>
       <c r="J2" t="n">
         <v>274047.3784561929</v>
       </c>
       <c r="K2" t="n">
-        <v>274047.3784561929</v>
+        <v>274047.3784561928</v>
       </c>
       <c r="L2" t="n">
         <v>274047.3784561929</v>
       </c>
       <c r="M2" t="n">
-        <v>274047.378456193</v>
+        <v>274047.3784561928</v>
       </c>
       <c r="N2" t="n">
-        <v>274047.378456193</v>
+        <v>274047.3784561929</v>
       </c>
       <c r="O2" t="n">
         <v>274047.3784561929</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>151755.1799049265</v>
+        <v>151755.1799049264</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>22545.50363380502</v>
@@ -26432,7 +26432,7 @@
         <v>22545.50363380502</v>
       </c>
       <c r="G4" t="n">
-        <v>22545.50363380502</v>
+        <v>22545.50363380501</v>
       </c>
       <c r="H4" t="n">
         <v>22545.50363380502</v>
@@ -26444,22 +26444,22 @@
         <v>22545.50363380502</v>
       </c>
       <c r="K4" t="n">
-        <v>22545.50363380503</v>
+        <v>22545.50363380502</v>
       </c>
       <c r="L4" t="n">
-        <v>22545.50363380503</v>
+        <v>22545.50363380502</v>
       </c>
       <c r="M4" t="n">
-        <v>22545.50363380502</v>
+        <v>22545.50363380501</v>
       </c>
       <c r="N4" t="n">
         <v>22545.50363380503</v>
       </c>
       <c r="O4" t="n">
-        <v>22545.50363380503</v>
+        <v>22545.50363380502</v>
       </c>
       <c r="P4" t="n">
-        <v>22545.50363380503</v>
+        <v>22545.50363380502</v>
       </c>
     </row>
     <row r="5">
@@ -26499,10 +26499,10 @@
         <v>47524.27844205809</v>
       </c>
       <c r="L5" t="n">
-        <v>47524.27844205809</v>
+        <v>47524.27844205807</v>
       </c>
       <c r="M5" t="n">
-        <v>47524.27844205809</v>
+        <v>47524.27844205807</v>
       </c>
       <c r="N5" t="n">
         <v>47524.27844205809</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112518.6216444901</v>
+        <v>112486.7149269884</v>
       </c>
       <c r="C6" t="n">
-        <v>112518.6216444902</v>
+        <v>112486.7149269885</v>
       </c>
       <c r="D6" t="n">
-        <v>112518.62164449</v>
+        <v>112486.7149269885</v>
       </c>
       <c r="E6" t="n">
-        <v>-364787.2664994086</v>
+        <v>-365321.6130977929</v>
       </c>
       <c r="F6" t="n">
-        <v>203977.5963803298</v>
+        <v>203443.2497819456</v>
       </c>
       <c r="G6" t="n">
-        <v>203977.5963803298</v>
+        <v>203443.2497819455</v>
       </c>
       <c r="H6" t="n">
-        <v>203977.5963803298</v>
+        <v>203443.2497819455</v>
       </c>
       <c r="I6" t="n">
-        <v>203977.5963803297</v>
+        <v>203443.2497819455</v>
       </c>
       <c r="J6" t="n">
-        <v>203977.5963803298</v>
+        <v>203443.2497819455</v>
       </c>
       <c r="K6" t="n">
-        <v>203977.5963803298</v>
+        <v>203443.2497819455</v>
       </c>
       <c r="L6" t="n">
-        <v>203977.5963803298</v>
+        <v>203443.2497819455</v>
       </c>
       <c r="M6" t="n">
-        <v>52222.41647540341</v>
+        <v>51688.06987701906</v>
       </c>
       <c r="N6" t="n">
-        <v>203977.5963803299</v>
+        <v>203443.2497819455</v>
       </c>
       <c r="O6" t="n">
-        <v>203977.5963803298</v>
+        <v>203443.2497819455</v>
       </c>
       <c r="P6" t="n">
-        <v>203977.5963803298</v>
+        <v>203443.2497819455</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>481.6299034943981</v>
       </c>
       <c r="H3" t="n">
-        <v>481.629903494398</v>
+        <v>481.6299034943981</v>
       </c>
       <c r="I3" t="n">
         <v>481.6299034943981</v>
       </c>
       <c r="J3" t="n">
+        <v>481.6299034943981</v>
+      </c>
+      <c r="K3" t="n">
+        <v>481.6299034943981</v>
+      </c>
+      <c r="L3" t="n">
+        <v>481.6299034943981</v>
+      </c>
+      <c r="M3" t="n">
+        <v>481.6299034943981</v>
+      </c>
+      <c r="N3" t="n">
+        <v>481.6299034943981</v>
+      </c>
+      <c r="O3" t="n">
         <v>481.6299034943982</v>
       </c>
-      <c r="K3" t="n">
+      <c r="P3" t="n">
         <v>481.6299034943982</v>
-      </c>
-      <c r="L3" t="n">
-        <v>481.6299034943982</v>
-      </c>
-      <c r="M3" t="n">
-        <v>481.6299034943982</v>
-      </c>
-      <c r="N3" t="n">
-        <v>481.6299034943983</v>
-      </c>
-      <c r="O3" t="n">
-        <v>481.6299034943983</v>
-      </c>
-      <c r="P3" t="n">
-        <v>481.6299034943983</v>
       </c>
     </row>
     <row r="4">
@@ -26804,7 +26804,7 @@
         <v>608.9596471361874</v>
       </c>
       <c r="G4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="H4" t="n">
         <v>608.9596471361874</v>
@@ -26819,19 +26819,19 @@
         <v>608.9596471361875</v>
       </c>
       <c r="L4" t="n">
+        <v>608.9596471361874</v>
+      </c>
+      <c r="M4" t="n">
+        <v>608.9596471361874</v>
+      </c>
+      <c r="N4" t="n">
         <v>608.9596471361875</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>608.9596471361875</v>
       </c>
-      <c r="N4" t="n">
-        <v>608.9596471361876</v>
-      </c>
-      <c r="O4" t="n">
-        <v>608.9596471361876</v>
-      </c>
       <c r="P4" t="n">
-        <v>608.9596471361876</v>
+        <v>608.9596471361875</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>481.629903494398</v>
+        <v>481.6299034943981</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32080,13 +32080,13 @@
         <v>97.87537501106445</v>
       </c>
       <c r="K15" t="n">
-        <v>167.284605254276</v>
+        <v>113.5466695008062</v>
       </c>
       <c r="L15" t="n">
         <v>224.9347959668885</v>
       </c>
       <c r="M15" t="n">
-        <v>208.7503616509771</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N15" t="n">
         <v>269.4355815784369</v>
@@ -32311,16 +32311,16 @@
         <v>10.00517969334589</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J18" t="n">
-        <v>79.80531418618924</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K18" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L18" t="n">
-        <v>224.9347959668885</v>
+        <v>171.1968602134187</v>
       </c>
       <c r="M18" t="n">
         <v>262.4882974044469</v>
@@ -32475,7 +32475,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K20" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L20" t="n">
         <v>305.5469788771547</v>
@@ -32484,16 +32484,16 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N20" t="n">
-        <v>345.4811166040771</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O20" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P20" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q20" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R20" t="n">
         <v>121.6248620115778</v>
@@ -32551,7 +32551,7 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J21" t="n">
-        <v>44.13743925759488</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K21" t="n">
         <v>167.284605254276</v>
@@ -32575,7 +32575,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R21" t="n">
-        <v>64.32031050817643</v>
+        <v>10.58237475470651</v>
       </c>
       <c r="S21" t="n">
         <v>19.24247774810165</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8685129407276029</v>
+        <v>0.868512940727603</v>
       </c>
       <c r="H22" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287239</v>
       </c>
       <c r="I22" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J22" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944153</v>
       </c>
       <c r="K22" t="n">
         <v>100.9054125681706</v>
@@ -32642,7 +32642,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N22" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O22" t="n">
         <v>122.7603563857525</v>
@@ -32654,16 +32654,16 @@
         <v>72.72611542765411</v>
       </c>
       <c r="R22" t="n">
-        <v>39.05150004398839</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S22" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T22" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.04737343313059658</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32806,13 +32806,13 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P24" t="n">
-        <v>197.8226673428218</v>
+        <v>144.0847315893518</v>
       </c>
       <c r="Q24" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R24" t="n">
-        <v>10.58237475470628</v>
+        <v>64.32031050817645</v>
       </c>
       <c r="S24" t="n">
         <v>19.24247774810165</v>
@@ -32943,16 +32943,16 @@
         <v>19.82911456949549</v>
       </c>
       <c r="I26" t="n">
-        <v>74.64537428931776</v>
+        <v>74.64537428931774</v>
       </c>
       <c r="J26" t="n">
-        <v>164.332607122443</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K26" t="n">
         <v>246.2919792427158</v>
       </c>
       <c r="L26" t="n">
-        <v>305.5469788771548</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M26" t="n">
         <v>339.9798866008472</v>
@@ -33022,25 +33022,25 @@
         <v>10.0051796933459</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J27" t="n">
         <v>97.87537501106446</v>
       </c>
       <c r="K27" t="n">
-        <v>149.2145444294005</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L27" t="n">
         <v>224.9347959668885</v>
       </c>
       <c r="M27" t="n">
-        <v>262.488297404447</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N27" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O27" t="n">
-        <v>246.4809186307606</v>
+        <v>192.7429828772906</v>
       </c>
       <c r="P27" t="n">
         <v>197.8226673428218</v>
@@ -33055,7 +33055,7 @@
         <v>19.24247774810165</v>
       </c>
       <c r="T27" t="n">
-        <v>4.175640389729734</v>
+        <v>4.175640389729733</v>
       </c>
       <c r="U27" t="n">
         <v>0.06815517502279222</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8685129407276032</v>
+        <v>0.8685129407276031</v>
       </c>
       <c r="H28" t="n">
-        <v>7.721869600287242</v>
+        <v>7.721869600287241</v>
       </c>
       <c r="I28" t="n">
-        <v>26.11855279933557</v>
+        <v>26.11855279933556</v>
       </c>
       <c r="J28" t="n">
         <v>61.40386490944154</v>
@@ -33122,7 +33122,7 @@
         <v>122.7603563857525</v>
       </c>
       <c r="P28" t="n">
-        <v>105.0426923949094</v>
+        <v>105.0426923949093</v>
       </c>
       <c r="Q28" t="n">
         <v>72.72611542765412</v>
@@ -33134,10 +33134,10 @@
         <v>15.13581188522559</v>
       </c>
       <c r="T28" t="n">
-        <v>3.710918928563395</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0473734331305966</v>
+        <v>0.04737343313059659</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,16 +33180,16 @@
         <v>19.82911456949549</v>
       </c>
       <c r="I29" t="n">
-        <v>74.64537428931776</v>
+        <v>74.64537428931774</v>
       </c>
       <c r="J29" t="n">
-        <v>164.332607122443</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K29" t="n">
         <v>246.2919792427158</v>
       </c>
       <c r="L29" t="n">
-        <v>305.5469788771548</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M29" t="n">
         <v>339.9798866008472</v>
@@ -33265,25 +33265,25 @@
         <v>97.87537501106446</v>
       </c>
       <c r="K30" t="n">
-        <v>167.284605254276</v>
+        <v>113.5466695008062</v>
       </c>
       <c r="L30" t="n">
         <v>224.9347959668885</v>
       </c>
       <c r="M30" t="n">
-        <v>262.488297404447</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N30" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O30" t="n">
-        <v>246.4809186307606</v>
+        <v>246.4809186307605</v>
       </c>
       <c r="P30" t="n">
         <v>197.8226673428218</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.50127850408626</v>
+        <v>132.2392142575563</v>
       </c>
       <c r="R30" t="n">
         <v>64.32031050817645</v>
@@ -33292,7 +33292,7 @@
         <v>19.24247774810165</v>
       </c>
       <c r="T30" t="n">
-        <v>4.175640389729734</v>
+        <v>4.175640389729733</v>
       </c>
       <c r="U30" t="n">
         <v>0.06815517502279222</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8685129407276032</v>
+        <v>0.8685129407276031</v>
       </c>
       <c r="H31" t="n">
-        <v>7.721869600287242</v>
+        <v>7.721869600287241</v>
       </c>
       <c r="I31" t="n">
-        <v>26.11855279933557</v>
+        <v>26.11855279933556</v>
       </c>
       <c r="J31" t="n">
         <v>61.40386490944154</v>
@@ -33359,7 +33359,7 @@
         <v>122.7603563857525</v>
       </c>
       <c r="P31" t="n">
-        <v>105.0426923949094</v>
+        <v>105.0426923949093</v>
       </c>
       <c r="Q31" t="n">
         <v>72.72611542765412</v>
@@ -33371,10 +33371,10 @@
         <v>15.13581188522559</v>
       </c>
       <c r="T31" t="n">
-        <v>3.710918928563395</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0473734331305966</v>
+        <v>0.04737343313059659</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,16 +33417,16 @@
         <v>19.82911456949549</v>
       </c>
       <c r="I32" t="n">
-        <v>74.64537428931776</v>
+        <v>74.64537428931774</v>
       </c>
       <c r="J32" t="n">
-        <v>164.332607122443</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K32" t="n">
         <v>246.2919792427158</v>
       </c>
       <c r="L32" t="n">
-        <v>305.5469788771548</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M32" t="n">
         <v>339.9798866008472</v>
@@ -33496,25 +33496,25 @@
         <v>10.0051796933459</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J33" t="n">
-        <v>79.80531418618888</v>
+        <v>97.87537501106446</v>
       </c>
       <c r="K33" t="n">
-        <v>167.284605254276</v>
+        <v>113.5466695008062</v>
       </c>
       <c r="L33" t="n">
         <v>224.9347959668885</v>
       </c>
       <c r="M33" t="n">
-        <v>262.488297404447</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N33" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O33" t="n">
-        <v>246.4809186307606</v>
+        <v>246.4809186307605</v>
       </c>
       <c r="P33" t="n">
         <v>197.8226673428218</v>
@@ -33529,7 +33529,7 @@
         <v>19.24247774810165</v>
       </c>
       <c r="T33" t="n">
-        <v>4.175640389729734</v>
+        <v>4.175640389729733</v>
       </c>
       <c r="U33" t="n">
         <v>0.06815517502279222</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8685129407276032</v>
+        <v>0.8685129407276031</v>
       </c>
       <c r="H34" t="n">
-        <v>7.721869600287242</v>
+        <v>7.721869600287241</v>
       </c>
       <c r="I34" t="n">
-        <v>26.11855279933557</v>
+        <v>26.11855279933556</v>
       </c>
       <c r="J34" t="n">
         <v>61.40386490944154</v>
@@ -33596,7 +33596,7 @@
         <v>122.7603563857525</v>
       </c>
       <c r="P34" t="n">
-        <v>105.0426923949094</v>
+        <v>105.0426923949093</v>
       </c>
       <c r="Q34" t="n">
         <v>72.72611542765412</v>
@@ -33608,10 +33608,10 @@
         <v>15.13581188522559</v>
       </c>
       <c r="T34" t="n">
-        <v>3.710918928563395</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0473734331305966</v>
+        <v>0.04737343313059659</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,16 +33654,16 @@
         <v>19.82911456949549</v>
       </c>
       <c r="I35" t="n">
-        <v>74.64537428931776</v>
+        <v>74.64537428931774</v>
       </c>
       <c r="J35" t="n">
-        <v>164.332607122443</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K35" t="n">
         <v>246.2919792427158</v>
       </c>
       <c r="L35" t="n">
-        <v>305.5469788771548</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M35" t="n">
         <v>339.9798866008472</v>
@@ -33742,19 +33742,19 @@
         <v>167.284605254276</v>
       </c>
       <c r="L36" t="n">
-        <v>171.1968602134184</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M36" t="n">
-        <v>262.488297404447</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N36" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O36" t="n">
-        <v>246.4809186307606</v>
+        <v>246.4809186307605</v>
       </c>
       <c r="P36" t="n">
-        <v>197.8226673428218</v>
+        <v>144.0847315893518</v>
       </c>
       <c r="Q36" t="n">
         <v>132.2392142575563</v>
@@ -33766,7 +33766,7 @@
         <v>19.24247774810165</v>
       </c>
       <c r="T36" t="n">
-        <v>4.175640389729734</v>
+        <v>4.175640389729733</v>
       </c>
       <c r="U36" t="n">
         <v>0.06815517502279222</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8685129407276032</v>
+        <v>0.8685129407276031</v>
       </c>
       <c r="H37" t="n">
-        <v>7.721869600287242</v>
+        <v>7.721869600287241</v>
       </c>
       <c r="I37" t="n">
-        <v>26.11855279933557</v>
+        <v>26.11855279933556</v>
       </c>
       <c r="J37" t="n">
         <v>61.40386490944154</v>
@@ -33833,7 +33833,7 @@
         <v>122.7603563857525</v>
       </c>
       <c r="P37" t="n">
-        <v>105.0426923949094</v>
+        <v>105.0426923949093</v>
       </c>
       <c r="Q37" t="n">
         <v>72.72611542765412</v>
@@ -33845,10 +33845,10 @@
         <v>15.13581188522559</v>
       </c>
       <c r="T37" t="n">
-        <v>3.710918928563395</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0473734331305966</v>
+        <v>0.04737343313059659</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,28 +33891,28 @@
         <v>19.82911456949549</v>
       </c>
       <c r="I38" t="n">
-        <v>74.64537428931776</v>
+        <v>74.64537428931774</v>
       </c>
       <c r="J38" t="n">
-        <v>164.332607122443</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K38" t="n">
-        <v>246.2919792427159</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L38" t="n">
-        <v>305.5469788771548</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M38" t="n">
         <v>339.9798866008472</v>
       </c>
       <c r="N38" t="n">
-        <v>345.4811166040773</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O38" t="n">
-        <v>326.228021718158</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P38" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844174</v>
       </c>
       <c r="Q38" t="n">
         <v>209.087884385852</v>
@@ -33921,13 +33921,13 @@
         <v>121.6248620115779</v>
       </c>
       <c r="S38" t="n">
-        <v>44.12117156132102</v>
+        <v>44.12117156132101</v>
       </c>
       <c r="T38" t="n">
-        <v>8.475718201192876</v>
+        <v>8.475718201192874</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1548960493650325</v>
+        <v>0.1548960493650324</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.035958660346442</v>
+        <v>1.035958660346441</v>
       </c>
       <c r="H39" t="n">
         <v>10.0051796933459</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J39" t="n">
-        <v>79.80531418618878</v>
+        <v>97.87537501106446</v>
       </c>
       <c r="K39" t="n">
-        <v>167.2846052542761</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L39" t="n">
-        <v>224.9347959668886</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M39" t="n">
-        <v>262.488297404447</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N39" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O39" t="n">
-        <v>246.4809186307606</v>
+        <v>246.4809186307605</v>
       </c>
       <c r="P39" t="n">
         <v>197.8226673428218</v>
@@ -33997,16 +33997,16 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R39" t="n">
-        <v>64.32031050817646</v>
+        <v>10.58237475470628</v>
       </c>
       <c r="S39" t="n">
         <v>19.24247774810165</v>
       </c>
       <c r="T39" t="n">
-        <v>4.175640389729734</v>
+        <v>4.175640389729733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06815517502279224</v>
+        <v>0.06815517502279222</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8685129407276033</v>
+        <v>0.8685129407276031</v>
       </c>
       <c r="H40" t="n">
-        <v>7.721869600287243</v>
+        <v>7.721869600287241</v>
       </c>
       <c r="I40" t="n">
-        <v>26.11855279933557</v>
+        <v>26.11855279933556</v>
       </c>
       <c r="J40" t="n">
-        <v>61.40386490944155</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K40" t="n">
         <v>100.9054125681706</v>
@@ -34067,25 +34067,25 @@
         <v>132.9061666478887</v>
       </c>
       <c r="O40" t="n">
-        <v>122.7603563857526</v>
+        <v>122.7603563857525</v>
       </c>
       <c r="P40" t="n">
-        <v>105.0426923949094</v>
+        <v>105.0426923949093</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.72611542765414</v>
+        <v>72.72611542765412</v>
       </c>
       <c r="R40" t="n">
-        <v>39.05150004398841</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S40" t="n">
         <v>15.13581188522559</v>
       </c>
       <c r="T40" t="n">
-        <v>3.710918928563395</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0473734331305966</v>
+        <v>0.04737343313059659</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34134,7 +34134,7 @@
         <v>164.332607122443</v>
       </c>
       <c r="K41" t="n">
-        <v>246.2919792427159</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L41" t="n">
         <v>305.5469788771548</v>
@@ -34143,13 +34143,13 @@
         <v>339.9798866008472</v>
       </c>
       <c r="N41" t="n">
-        <v>345.4811166040773</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O41" t="n">
-        <v>326.228021718158</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P41" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844174</v>
       </c>
       <c r="Q41" t="n">
         <v>209.087884385852</v>
@@ -34158,13 +34158,13 @@
         <v>121.6248620115779</v>
       </c>
       <c r="S41" t="n">
-        <v>44.12117156132102</v>
+        <v>44.12117156132101</v>
       </c>
       <c r="T41" t="n">
-        <v>8.475718201192876</v>
+        <v>8.475718201192874</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1548960493650325</v>
+        <v>0.1548960493650324</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.035958660346442</v>
+        <v>1.035958660346441</v>
       </c>
       <c r="H42" t="n">
         <v>10.0051796933459</v>
@@ -34210,13 +34210,13 @@
         <v>35.66787492859459</v>
       </c>
       <c r="J42" t="n">
-        <v>97.87537501106448</v>
+        <v>97.87537501106446</v>
       </c>
       <c r="K42" t="n">
-        <v>167.2846052542761</v>
+        <v>113.5466695008059</v>
       </c>
       <c r="L42" t="n">
-        <v>224.9347959668886</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M42" t="n">
         <v>262.488297404447</v>
@@ -34234,7 +34234,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R42" t="n">
-        <v>10.58237475470605</v>
+        <v>64.32031050817645</v>
       </c>
       <c r="S42" t="n">
         <v>19.24247774810165</v>
@@ -34243,7 +34243,7 @@
         <v>4.175640389729734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06815517502279224</v>
+        <v>0.06815517502279222</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8685129407276033</v>
+        <v>0.8685129407276032</v>
       </c>
       <c r="H43" t="n">
-        <v>7.721869600287243</v>
+        <v>7.721869600287242</v>
       </c>
       <c r="I43" t="n">
         <v>26.11855279933557</v>
       </c>
       <c r="J43" t="n">
-        <v>61.40386490944155</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K43" t="n">
         <v>100.9054125681706</v>
@@ -34304,16 +34304,16 @@
         <v>132.9061666478887</v>
       </c>
       <c r="O43" t="n">
-        <v>122.7603563857526</v>
+        <v>122.7603563857525</v>
       </c>
       <c r="P43" t="n">
         <v>105.0426923949094</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.72611542765414</v>
+        <v>72.72611542765412</v>
       </c>
       <c r="R43" t="n">
-        <v>39.05150004398841</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S43" t="n">
         <v>15.13581188522559</v>
@@ -34371,7 +34371,7 @@
         <v>164.332607122443</v>
       </c>
       <c r="K44" t="n">
-        <v>246.2919792427159</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L44" t="n">
         <v>305.5469788771548</v>
@@ -34380,13 +34380,13 @@
         <v>339.9798866008472</v>
       </c>
       <c r="N44" t="n">
-        <v>345.4811166040773</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O44" t="n">
-        <v>326.228021718158</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P44" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844174</v>
       </c>
       <c r="Q44" t="n">
         <v>209.087884385852</v>
@@ -34395,13 +34395,13 @@
         <v>121.624862011578</v>
       </c>
       <c r="S44" t="n">
-        <v>44.12117156132102</v>
+        <v>44.12117156132101</v>
       </c>
       <c r="T44" t="n">
-        <v>8.475718201192876</v>
+        <v>8.475718201192874</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1548960493650325</v>
+        <v>0.1548960493650324</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.035958660346442</v>
+        <v>1.035958660346441</v>
       </c>
       <c r="H45" t="n">
         <v>10.0051796933459</v>
@@ -34447,13 +34447,13 @@
         <v>35.66787492859459</v>
       </c>
       <c r="J45" t="n">
-        <v>44.1374392575942</v>
+        <v>97.87537501106446</v>
       </c>
       <c r="K45" t="n">
-        <v>167.2846052542761</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L45" t="n">
-        <v>224.9347959668886</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M45" t="n">
         <v>262.488297404447</v>
@@ -34471,7 +34471,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R45" t="n">
-        <v>64.32031050817646</v>
+        <v>10.58237475470628</v>
       </c>
       <c r="S45" t="n">
         <v>19.24247774810165</v>
@@ -34480,7 +34480,7 @@
         <v>4.175640389729734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06815517502279224</v>
+        <v>0.06815517502279222</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8685129407276033</v>
+        <v>0.8685129407276032</v>
       </c>
       <c r="H46" t="n">
-        <v>7.721869600287243</v>
+        <v>7.721869600287242</v>
       </c>
       <c r="I46" t="n">
         <v>26.11855279933557</v>
       </c>
       <c r="J46" t="n">
-        <v>61.40386490944155</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K46" t="n">
         <v>100.9054125681706</v>
@@ -34541,16 +34541,16 @@
         <v>132.9061666478887</v>
       </c>
       <c r="O46" t="n">
-        <v>122.7603563857526</v>
+        <v>122.7603563857525</v>
       </c>
       <c r="P46" t="n">
         <v>105.0426923949094</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.72611542765414</v>
+        <v>72.72611542765412</v>
       </c>
       <c r="R46" t="n">
-        <v>39.05150004398841</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S46" t="n">
         <v>15.13581188522559</v>
@@ -35409,22 +35409,22 @@
         <v>74.23275281018633</v>
       </c>
       <c r="J11" t="n">
-        <v>164.3326071224429</v>
+        <v>164.3326071224433</v>
       </c>
       <c r="K11" t="n">
-        <v>246.2919792427156</v>
+        <v>246.291979242716</v>
       </c>
       <c r="L11" t="n">
         <v>305.5469788771547</v>
       </c>
       <c r="M11" t="n">
-        <v>339.9798866008468</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N11" t="n">
-        <v>345.4811166040774</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O11" t="n">
-        <v>326.2280217181583</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P11" t="n">
         <v>278.4280689844175</v>
@@ -35576,13 +35576,13 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M13" t="n">
-        <v>136.1433512451459</v>
+        <v>600.2684696097048</v>
       </c>
       <c r="N13" t="n">
-        <v>355.4752120092869</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O13" t="n">
-        <v>546.6686889370469</v>
+        <v>305.1126159338862</v>
       </c>
       <c r="P13" t="n">
         <v>456.0597570114162</v>
@@ -35646,16 +35646,16 @@
         <v>74.23275281018633</v>
       </c>
       <c r="J14" t="n">
-        <v>164.3326071224428</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K14" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L14" t="n">
-        <v>305.5469788771546</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M14" t="n">
-        <v>339.9798866008473</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N14" t="n">
         <v>345.4811166040772</v>
@@ -35728,13 +35728,13 @@
         <v>97.87537501106445</v>
       </c>
       <c r="K15" t="n">
-        <v>167.284605254276</v>
+        <v>113.5466695008062</v>
       </c>
       <c r="L15" t="n">
         <v>224.9347959668885</v>
       </c>
       <c r="M15" t="n">
-        <v>208.7503616509771</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N15" t="n">
         <v>269.435581578437</v>
@@ -35807,19 +35807,19 @@
         <v>148.8580923485222</v>
       </c>
       <c r="K16" t="n">
-        <v>378.4392050642672</v>
+        <v>178.5740264176238</v>
       </c>
       <c r="L16" t="n">
         <v>551.5584115776708</v>
       </c>
       <c r="M16" t="n">
-        <v>136.1433512451461</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N16" t="n">
         <v>132.9061666478888</v>
       </c>
       <c r="O16" t="n">
-        <v>346.8035102904034</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P16" t="n">
         <v>456.0597570114162</v>
@@ -35898,7 +35898,7 @@
         <v>345.4811166040772</v>
       </c>
       <c r="O17" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P17" t="n">
         <v>278.4280689844175</v>
@@ -35907,7 +35907,7 @@
         <v>209.0878843858518</v>
       </c>
       <c r="R17" t="n">
-        <v>121.6248620115775</v>
+        <v>121.624862011578</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J18" t="n">
-        <v>79.80531418618924</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K18" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L18" t="n">
-        <v>224.9347959668885</v>
+        <v>171.1968602134187</v>
       </c>
       <c r="M18" t="n">
         <v>262.4882974044469</v>
@@ -36050,19 +36050,19 @@
         <v>551.5584115776708</v>
       </c>
       <c r="M19" t="n">
-        <v>360.1865051497969</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N19" t="n">
         <v>132.9061666478888</v>
       </c>
       <c r="O19" t="n">
-        <v>122.7603563857526</v>
+        <v>516.6952020725569</v>
       </c>
       <c r="P19" t="n">
         <v>456.0597570114162</v>
       </c>
       <c r="Q19" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765389</v>
       </c>
       <c r="R19" t="n">
         <v>17.84785696230656</v>
@@ -36120,22 +36120,22 @@
         <v>74.23275281018633</v>
       </c>
       <c r="J20" t="n">
-        <v>164.3326071224428</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K20" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L20" t="n">
-        <v>305.5469788771549</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M20" t="n">
-        <v>339.9798866008475</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N20" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O20" t="n">
-        <v>326.2280217181576</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P20" t="n">
         <v>278.4280689844175</v>
@@ -36199,7 +36199,7 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J21" t="n">
-        <v>44.13743925759488</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K21" t="n">
         <v>167.284605254276</v>
@@ -36208,10 +36208,10 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M21" t="n">
-        <v>262.4882974044468</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N21" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O21" t="n">
         <v>246.4809186307605</v>
@@ -36223,7 +36223,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R21" t="n">
-        <v>64.32031050817636</v>
+        <v>10.58237475470651</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>378.4392050642672</v>
       </c>
       <c r="L22" t="n">
-        <v>129.1241875696293</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M22" t="n">
-        <v>136.1433512451459</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N22" t="n">
-        <v>355.4752120092869</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O22" t="n">
-        <v>546.6686889370469</v>
+        <v>346.8035102904034</v>
       </c>
       <c r="P22" t="n">
         <v>456.0597570114162</v>
@@ -36302,7 +36302,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R22" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>74.23275281018634</v>
       </c>
       <c r="J23" t="n">
-        <v>164.3326071224431</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K23" t="n">
         <v>246.2919792427158</v>
@@ -36375,13 +36375,13 @@
         <v>326.2280217181578</v>
       </c>
       <c r="P23" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q23" t="n">
         <v>209.0878843858518</v>
       </c>
       <c r="R23" t="n">
-        <v>121.6248620115775</v>
+        <v>121.6248620115784</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P24" t="n">
-        <v>197.8226673428219</v>
+        <v>144.0847315893518</v>
       </c>
       <c r="Q24" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R24" t="n">
-        <v>10.58237475470628</v>
+        <v>64.32031050817636</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,10 +36591,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>74.23275281018635</v>
+        <v>74.23275281018634</v>
       </c>
       <c r="J26" t="n">
-        <v>164.3326071224433</v>
+        <v>164.3326071224428</v>
       </c>
       <c r="K26" t="n">
         <v>246.2919792427158</v>
@@ -36609,10 +36609,10 @@
         <v>345.4811166040772</v>
       </c>
       <c r="O26" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P26" t="n">
-        <v>278.4280689844172</v>
+        <v>278.4280689844175</v>
       </c>
       <c r="Q26" t="n">
         <v>209.0878843858518</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J27" t="n">
         <v>97.87537501106446</v>
       </c>
       <c r="K27" t="n">
-        <v>149.2145444294005</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L27" t="n">
         <v>224.9347959668885</v>
@@ -36688,10 +36688,10 @@
         <v>269.435581578437</v>
       </c>
       <c r="O27" t="n">
-        <v>246.4809186307605</v>
+        <v>192.7429828772906</v>
       </c>
       <c r="P27" t="n">
-        <v>197.8226673428219</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q27" t="n">
         <v>132.2392142575563</v>
@@ -36755,28 +36755,28 @@
         <v>148.8580923485222</v>
       </c>
       <c r="K28" t="n">
-        <v>100.9054125681706</v>
+        <v>378.4392050642671</v>
       </c>
       <c r="L28" t="n">
-        <v>239.2845996656253</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M28" t="n">
-        <v>600.2684696097047</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N28" t="n">
-        <v>579.6322304434893</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O28" t="n">
-        <v>546.6686889370469</v>
+        <v>346.8035102904039</v>
       </c>
       <c r="P28" t="n">
-        <v>105.0426923949094</v>
+        <v>456.0597570114162</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.72611542765435</v>
+        <v>242.6178072098078</v>
       </c>
       <c r="R28" t="n">
-        <v>17.84785696230657</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,10 +36828,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.23275281018616</v>
+        <v>74.23275281018634</v>
       </c>
       <c r="J29" t="n">
-        <v>164.332607122443</v>
+        <v>164.3326071224431</v>
       </c>
       <c r="K29" t="n">
         <v>246.2919792427158</v>
@@ -36840,13 +36840,13 @@
         <v>305.5469788771547</v>
       </c>
       <c r="M29" t="n">
-        <v>339.9798866008473</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N29" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O29" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P29" t="n">
         <v>278.4280689844175</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.6678749285946</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J30" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106446</v>
       </c>
       <c r="K30" t="n">
-        <v>167.284605254276</v>
+        <v>113.5466695008062</v>
       </c>
       <c r="L30" t="n">
         <v>224.9347959668885</v>
@@ -36928,10 +36928,10 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P30" t="n">
-        <v>197.8226673428219</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.50127850408626</v>
+        <v>132.2392142575563</v>
       </c>
       <c r="R30" t="n">
         <v>64.32031050817636</v>
@@ -36998,13 +36998,13 @@
         <v>551.5584115776708</v>
       </c>
       <c r="M31" t="n">
-        <v>360.1865051497973</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N31" t="n">
         <v>132.9061666478888</v>
       </c>
       <c r="O31" t="n">
-        <v>122.7603563857526</v>
+        <v>346.8035102904039</v>
       </c>
       <c r="P31" t="n">
         <v>456.0597570114162</v>
@@ -37013,7 +37013,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R31" t="n">
-        <v>17.84785696230657</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>74.23275281018635</v>
+        <v>74.23275281018634</v>
       </c>
       <c r="J32" t="n">
-        <v>164.3326071224429</v>
+        <v>164.3326071224431</v>
       </c>
       <c r="K32" t="n">
-        <v>246.2919792427159</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L32" t="n">
         <v>305.5469788771547</v>
       </c>
       <c r="M32" t="n">
-        <v>339.9798866008473</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N32" t="n">
-        <v>345.4811166040772</v>
+        <v>345.4811166040774</v>
       </c>
       <c r="O32" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P32" t="n">
         <v>278.4280689844175</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J33" t="n">
-        <v>79.80531418618888</v>
+        <v>97.87537501106448</v>
       </c>
       <c r="K33" t="n">
-        <v>167.284605254276</v>
+        <v>113.5466695008062</v>
       </c>
       <c r="L33" t="n">
         <v>224.9347959668885</v>
@@ -37165,7 +37165,7 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P33" t="n">
-        <v>197.8226673428219</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q33" t="n">
         <v>132.2392142575563</v>
@@ -37232,13 +37232,13 @@
         <v>378.4392050642671</v>
       </c>
       <c r="L34" t="n">
-        <v>311.4764471177634</v>
+        <v>129.1241875696293</v>
       </c>
       <c r="M34" t="n">
-        <v>600.2684696097047</v>
+        <v>335.8946653622378</v>
       </c>
       <c r="N34" t="n">
-        <v>132.9061666478888</v>
+        <v>579.6322304434893</v>
       </c>
       <c r="O34" t="n">
         <v>122.7603563857526</v>
@@ -37250,7 +37250,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R34" t="n">
-        <v>17.84785696230657</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>74.23275281018635</v>
+        <v>74.23275281018634</v>
       </c>
       <c r="J35" t="n">
-        <v>164.332607122443</v>
+        <v>164.3326071224428</v>
       </c>
       <c r="K35" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427156</v>
       </c>
       <c r="L35" t="n">
         <v>305.5469788771547</v>
@@ -37317,10 +37317,10 @@
         <v>339.9798866008473</v>
       </c>
       <c r="N35" t="n">
-        <v>345.4811166040772</v>
+        <v>345.4811166040774</v>
       </c>
       <c r="O35" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P35" t="n">
         <v>278.4280689844175</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>35.6678749285946</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J36" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106448</v>
       </c>
       <c r="K36" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L36" t="n">
-        <v>171.1968602134184</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M36" t="n">
         <v>262.4882974044469</v>
@@ -37402,7 +37402,7 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P36" t="n">
-        <v>197.8226673428219</v>
+        <v>144.0847315893518</v>
       </c>
       <c r="Q36" t="n">
         <v>132.2392142575563</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>148.8580923485222</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K37" t="n">
-        <v>252.7567190206838</v>
+        <v>378.4392050642672</v>
       </c>
       <c r="L37" t="n">
-        <v>551.5584115776708</v>
+        <v>129.1241875696293</v>
       </c>
       <c r="M37" t="n">
-        <v>136.1433512451461</v>
+        <v>600.2684696097048</v>
       </c>
       <c r="N37" t="n">
-        <v>579.6322304434893</v>
+        <v>572.6043454172568</v>
       </c>
       <c r="O37" t="n">
-        <v>546.6686889370469</v>
+        <v>122.7603563857526</v>
       </c>
       <c r="P37" t="n">
-        <v>105.0426923949094</v>
+        <v>456.0597570114162</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.72611542765435</v>
+        <v>72.72611542765389</v>
       </c>
       <c r="R37" t="n">
-        <v>17.84785696230657</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>74.23275281018635</v>
+        <v>74.23275281018634</v>
       </c>
       <c r="J38" t="n">
-        <v>164.3326071224433</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K38" t="n">
         <v>246.2919792427158</v>
       </c>
       <c r="L38" t="n">
-        <v>305.546978877155</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M38" t="n">
-        <v>339.9798866008473</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N38" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O38" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P38" t="n">
         <v>278.4280689844175</v>
       </c>
       <c r="Q38" t="n">
-        <v>209.0878843858522</v>
+        <v>209.0878843858518</v>
       </c>
       <c r="R38" t="n">
-        <v>121.6248620115775</v>
+        <v>121.624862011578</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J39" t="n">
-        <v>79.80531418618878</v>
+        <v>97.87537501106446</v>
       </c>
       <c r="K39" t="n">
-        <v>167.2846052542761</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L39" t="n">
-        <v>224.9347959668886</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M39" t="n">
         <v>262.4882974044469</v>
@@ -37645,7 +37645,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R39" t="n">
-        <v>64.32031050817636</v>
+        <v>10.58237475470628</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>148.8580923485222</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K40" t="n">
-        <v>378.4392050642671</v>
+        <v>378.4392050642672</v>
       </c>
       <c r="L40" t="n">
-        <v>551.5584115776708</v>
+        <v>129.1241875696293</v>
       </c>
       <c r="M40" t="n">
-        <v>360.1865051497978</v>
+        <v>136.1433512451459</v>
       </c>
       <c r="N40" t="n">
-        <v>132.9061666478888</v>
+        <v>442.9294394483679</v>
       </c>
       <c r="O40" t="n">
-        <v>122.7603563857526</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P40" t="n">
         <v>456.0597570114162</v>
@@ -37724,7 +37724,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R40" t="n">
-        <v>17.84785696230658</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>74.23275281018635</v>
       </c>
       <c r="J41" t="n">
-        <v>164.332607122443</v>
+        <v>164.3326071224433</v>
       </c>
       <c r="K41" t="n">
         <v>246.2919792427158</v>
@@ -37788,7 +37788,7 @@
         <v>305.5469788771547</v>
       </c>
       <c r="M41" t="n">
-        <v>339.9798866008473</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N41" t="n">
         <v>345.4811166040772</v>
@@ -37797,10 +37797,10 @@
         <v>326.2280217181581</v>
       </c>
       <c r="P41" t="n">
-        <v>278.4280689844172</v>
+        <v>278.4280689844175</v>
       </c>
       <c r="Q41" t="n">
-        <v>209.0878843858522</v>
+        <v>209.0878843858518</v>
       </c>
       <c r="R41" t="n">
         <v>121.624862011578</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.66787492859459</v>
+        <v>35.6678749285946</v>
       </c>
       <c r="J42" t="n">
-        <v>97.87537501106448</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K42" t="n">
-        <v>167.2846052542761</v>
+        <v>113.5466695008059</v>
       </c>
       <c r="L42" t="n">
-        <v>224.9347959668886</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M42" t="n">
         <v>262.4882974044469</v>
@@ -37882,7 +37882,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R42" t="n">
-        <v>10.58237475470605</v>
+        <v>64.32031050817636</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,28 +37940,28 @@
         <v>148.8580923485222</v>
       </c>
       <c r="K43" t="n">
-        <v>212.5399332074201</v>
+        <v>378.4392050642671</v>
       </c>
       <c r="L43" t="n">
         <v>551.5584115776708</v>
       </c>
       <c r="M43" t="n">
-        <v>600.2684696097047</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N43" t="n">
-        <v>579.6322304434893</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O43" t="n">
-        <v>122.7603563857524</v>
+        <v>346.8035102904039</v>
       </c>
       <c r="P43" t="n">
-        <v>105.0426923949094</v>
+        <v>456.0597570114162</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.72611542765435</v>
+        <v>242.6178072098078</v>
       </c>
       <c r="R43" t="n">
-        <v>17.84785696230658</v>
+        <v>17.84785696230657</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>278.4280689844172</v>
       </c>
       <c r="Q44" t="n">
-        <v>209.0878843858522</v>
+        <v>209.0878843858518</v>
       </c>
       <c r="R44" t="n">
         <v>121.624862011578</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>35.66787492859459</v>
+        <v>35.6678749285946</v>
       </c>
       <c r="J45" t="n">
-        <v>44.1374392575942</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K45" t="n">
-        <v>167.2846052542761</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L45" t="n">
-        <v>224.9347959668886</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M45" t="n">
         <v>262.4882974044469</v>
@@ -38119,7 +38119,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R45" t="n">
-        <v>64.32031050817636</v>
+        <v>10.58237475470628</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,28 +38177,28 @@
         <v>148.8580923485222</v>
       </c>
       <c r="K46" t="n">
-        <v>378.4392050642671</v>
+        <v>100.9054125681706</v>
       </c>
       <c r="L46" t="n">
-        <v>551.5584115776708</v>
+        <v>239.2845996656253</v>
       </c>
       <c r="M46" t="n">
-        <v>136.1433512451461</v>
+        <v>600.2684696097047</v>
       </c>
       <c r="N46" t="n">
-        <v>132.9061666478888</v>
+        <v>579.6322304434893</v>
       </c>
       <c r="O46" t="n">
-        <v>346.8035102904043</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P46" t="n">
-        <v>456.0597570114162</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q46" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765435</v>
       </c>
       <c r="R46" t="n">
-        <v>17.84785696230658</v>
+        <v>17.84785696230657</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
